--- a/data/Salvation, Grace, and Sin.xlsx
+++ b/data/Salvation, Grace, and Sin.xlsx
@@ -4070,15 +4070,17 @@
       <c r="B143" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="14">
-        <v>0</v>
-      </c>
-      <c r="D143" s="45"/>
-      <c r="E143" s="15">
-        <v>0</v>
-      </c>
-      <c r="F143" s="42">
-        <v>0</v>
+      <c r="C143" s="31">
+        <v>41.5</v>
+      </c>
+      <c r="D143" s="26">
+        <v>37</v>
+      </c>
+      <c r="E143" s="32">
+        <v>78.5</v>
+      </c>
+      <c r="F143" s="35">
+        <v>0.79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" customFormat="1" s="1">
